--- a/status/excel/fromBox/SJNA_excel.xlsx
+++ b/status/excel/fromBox/SJNA_excel.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_70C15063C45FA20F62355476585DCE3A87474E64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF86206-7CA6-4411-8337-215199074D79}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Downloads/Status Sheets-selected (6)/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAB4264-8AA2-E947-9E41-1DC82266DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,7 +618,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +633,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,12 +671,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,13 +988,13 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,10 +1004,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1014,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1024,14 +1036,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1041,14 +1053,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1058,14 +1070,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1075,14 +1087,14 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1092,14 +1104,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1109,14 +1121,14 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1126,14 +1138,14 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1143,14 +1155,14 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1160,14 +1172,14 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1177,14 +1189,14 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1194,14 +1206,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1211,14 +1223,14 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1228,14 +1240,14 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1245,14 +1257,14 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1262,14 +1274,14 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1279,14 +1291,14 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1296,14 +1308,14 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1313,14 +1325,14 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1330,14 +1342,14 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1347,14 +1359,14 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1364,14 +1376,14 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1381,14 +1393,14 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1398,14 +1410,14 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1415,14 +1427,14 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1432,14 +1444,14 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1449,14 +1461,14 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1466,14 +1478,14 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1483,14 +1495,14 @@
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1500,14 +1512,14 @@
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1517,14 +1529,14 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1534,14 +1546,14 @@
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1551,14 +1563,14 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1568,14 +1580,14 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1585,14 +1597,14 @@
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1602,14 +1614,14 @@
       <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1619,14 +1631,14 @@
       <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1636,14 +1648,14 @@
       <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1653,14 +1665,14 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1670,14 +1682,14 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1687,14 +1699,14 @@
       <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1704,14 +1716,14 @@
       <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1721,14 +1733,14 @@
       <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1738,14 +1750,14 @@
       <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1755,14 +1767,14 @@
       <c r="C45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1772,14 +1784,14 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1789,14 +1801,14 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1806,14 +1818,14 @@
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1823,14 +1835,14 @@
       <c r="C49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1840,14 +1852,14 @@
       <c r="C50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1857,14 +1869,14 @@
       <c r="C51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1874,14 +1886,14 @@
       <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1891,14 +1903,14 @@
       <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1908,14 +1920,14 @@
       <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1925,14 +1937,14 @@
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1942,14 +1954,14 @@
       <c r="C56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1959,14 +1971,14 @@
       <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1976,14 +1988,14 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1993,14 +2005,14 @@
       <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2010,14 +2022,14 @@
       <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2027,14 +2039,14 @@
       <c r="C61" t="s">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2044,14 +2056,14 @@
       <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2061,14 +2073,14 @@
       <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2078,14 +2090,14 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2095,14 +2107,14 @@
       <c r="C65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2112,14 +2124,14 @@
       <c r="C66" t="s">
         <v>11</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2129,14 +2141,14 @@
       <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2146,14 +2158,14 @@
       <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2163,14 +2175,14 @@
       <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2180,14 +2192,14 @@
       <c r="C70" t="s">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2197,14 +2209,14 @@
       <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2214,14 +2226,14 @@
       <c r="C72" t="s">
         <v>11</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2231,14 +2243,14 @@
       <c r="C73" t="s">
         <v>11</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2248,14 +2260,14 @@
       <c r="C74" t="s">
         <v>11</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2265,14 +2277,14 @@
       <c r="C75" t="s">
         <v>11</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2282,14 +2294,14 @@
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2299,14 +2311,14 @@
       <c r="C77" t="s">
         <v>11</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2316,14 +2328,14 @@
       <c r="C78" t="s">
         <v>11</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2333,14 +2345,14 @@
       <c r="C79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2350,14 +2362,14 @@
       <c r="C80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2367,14 +2379,14 @@
       <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2384,14 +2396,14 @@
       <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2401,14 +2413,14 @@
       <c r="C83" t="s">
         <v>11</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2418,14 +2430,14 @@
       <c r="C84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2435,14 +2447,14 @@
       <c r="C85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2452,14 +2464,14 @@
       <c r="C86" t="s">
         <v>11</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2469,14 +2481,14 @@
       <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2486,14 +2498,14 @@
       <c r="C88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2503,14 +2515,14 @@
       <c r="C89" t="s">
         <v>11</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2520,14 +2532,14 @@
       <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2537,14 +2549,14 @@
       <c r="C91" t="s">
         <v>11</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2554,14 +2566,14 @@
       <c r="C92" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>45109</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>45169</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2571,14 +2583,14 @@
       <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>45170</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>45230</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2588,14 +2600,14 @@
       <c r="C94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>45231</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>45291</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2605,14 +2617,14 @@
       <c r="C95" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>45292</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>45351</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2622,10 +2634,10 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>45352</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>45366</v>
       </c>
     </row>
